--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2600370209819</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6589999198913574</v>
+        <v>0.624000072479248</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.673221277784538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.673221277784538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.54999999999401</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999375</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.5301821929543</v>
+        <v>27.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.74822664028354</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.98393028943172</v>
+        <v>12.53211374152103</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553866</v>
+        <v>23.30208569452858</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.409999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999997</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999986</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1137,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.725</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1148,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1159,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000066</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1203,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999944</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1214,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999945</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1225,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999934</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1236,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999935</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999919</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1258,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.010000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7849999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1280,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8049999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3099999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1302,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9949999999983</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000013</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1324,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2299999999995</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1335,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000004</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1346,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000001</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1357,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4949999999984</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1368,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.409999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -1390,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999997</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -1401,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0549999999986</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1412,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.725</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37">
@@ -1423,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000013</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1434,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2299999999995</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
@@ -1445,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
@@ -1456,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000001</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1467,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4949999999984</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999998973</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1525,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1536,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049999999996828</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1547,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054999999998614</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1558,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1569,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.985000000001321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1580,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.229999999999507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1591,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9.165000000000418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1602,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.630000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1613,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.49499999999841</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1726,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1737,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1759,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1770,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.909999999999442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1781,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.144999999999325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1792,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.779999999999361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.454999999999297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1814,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.854999999999448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1825,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1836,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1858,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1869,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1938,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1965,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1976,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1987,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1998,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2009,56 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
